--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -622,10 +634,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -669,28 +681,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -715,28 +727,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1085,10 +1097,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1132,28 +1144,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1178,28 +1190,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1490,10 +1502,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1537,28 +1549,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1583,28 +1595,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1982,10 +1994,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2029,28 +2041,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2075,28 +2087,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2416,10 +2428,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2463,28 +2475,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2509,28 +2521,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2908,10 +2920,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2955,28 +2967,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3001,28 +3013,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3400,10 +3412,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="J113" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3447,28 +3459,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3493,28 +3505,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3602,10 +3614,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="J120" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3649,28 +3661,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3695,28 +3707,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3833,10 +3845,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
+      <c r="J128" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="2" t="s">
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3880,28 +3892,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3926,28 +3938,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4064,10 +4076,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="J136" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4111,28 +4123,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4157,28 +4169,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4295,10 +4307,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
+      <c r="J144" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K144" s="2" t="s">
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4342,28 +4354,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4388,28 +4400,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4555,10 +4567,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
+      <c r="J153" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K153" s="2" t="s">
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4602,28 +4614,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4648,28 +4660,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4757,10 +4769,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
+      <c r="J160" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K160" s="2" t="s">
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4804,28 +4816,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4850,28 +4862,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4988,10 +5000,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
+      <c r="J168" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K168" s="2" t="s">
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5035,28 +5047,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5081,28 +5093,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5190,10 +5202,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
+      <c r="J175" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="2" t="s">
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5237,28 +5249,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5283,28 +5295,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5363,10 +5375,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
+      <c r="J181" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="2" t="s">
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -634,10 +682,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -681,28 +729,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="4">
+      <c r="A19" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="4">
+      <c r="B19" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="4">
+      <c r="C19" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="4">
+      <c r="D19" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="4">
+      <c r="E19" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="4">
+      <c r="F19" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="4">
+      <c r="G19" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="4">
+      <c r="H19" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -727,28 +775,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="4">
+      <c r="C21" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="4">
+      <c r="D21" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="4">
+      <c r="E21" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="4">
+      <c r="F21" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="4">
+      <c r="G21" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="4">
+      <c r="H21" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="4">
+      <c r="I21" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1097,10 +1145,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1144,28 +1192,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="4">
+      <c r="A35" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="4">
+      <c r="C35" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D35" t="s" s="4">
+      <c r="D35" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="4">
+      <c r="G35" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="4">
+      <c r="H35" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1190,28 +1238,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="4">
+      <c r="B37" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="4">
+      <c r="C37" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="4">
+      <c r="D37" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="4">
+      <c r="E37" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="4">
+      <c r="F37" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="4">
+      <c r="G37" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="4">
+      <c r="H37" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="4">
+      <c r="I37" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1502,10 +1550,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J47" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1549,28 +1597,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="4">
+      <c r="A49" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="4">
+      <c r="B49" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="4">
+      <c r="C49" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D49" t="s" s="4">
+      <c r="D49" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="4">
+      <c r="E49" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="4">
+      <c r="F49" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="4">
+      <c r="G49" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="4">
+      <c r="H49" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1595,28 +1643,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="4">
+      <c r="B51" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="4">
+      <c r="C51" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="4">
+      <c r="D51" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="4">
+      <c r="E51" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="4">
+      <c r="F51" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="4">
+      <c r="G51" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="4">
+      <c r="H51" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="4">
+      <c r="I51" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1994,10 +2042,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="J64" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K64" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2041,28 +2089,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="4">
+      <c r="A66" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="4">
+      <c r="B66" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="4">
+      <c r="C66" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="4">
+      <c r="D66" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="4">
+      <c r="E66" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="4">
+      <c r="F66" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="4">
+      <c r="G66" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="4">
+      <c r="H66" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2087,28 +2135,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="4">
+      <c r="C68" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="4">
+      <c r="D68" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="4">
+      <c r="G68" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="4">
+      <c r="H68" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="4">
+      <c r="I68" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2428,10 +2476,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="J79" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="K79" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2475,28 +2523,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="4">
+      <c r="A81" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="4">
+      <c r="B81" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="4">
+      <c r="C81" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D81" t="s" s="4">
+      <c r="D81" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="4">
+      <c r="E81" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="4">
+      <c r="F81" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="4">
+      <c r="G81" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="4">
+      <c r="H81" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2521,28 +2569,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="4">
+      <c r="C83" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="4">
+      <c r="D83" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="4">
+      <c r="G83" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="4">
+      <c r="H83" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="4">
+      <c r="I83" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2920,10 +2968,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="J96" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="K96" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2967,28 +3015,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="4">
+      <c r="A98" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="4">
+      <c r="B98" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="C98" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="4">
+      <c r="D98" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="4">
+      <c r="E98" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="4">
+      <c r="F98" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="4">
+      <c r="G98" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="4">
+      <c r="H98" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3013,28 +3061,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="4">
+      <c r="B100" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="4">
+      <c r="C100" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="4">
+      <c r="D100" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="4">
+      <c r="E100" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="4">
+      <c r="F100" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="4">
+      <c r="G100" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="4">
+      <c r="H100" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="4">
+      <c r="I100" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3412,10 +3460,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="4" t="s">
+      <c r="J113" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="4" t="s">
+      <c r="K113" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3459,28 +3507,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="4">
+      <c r="A115" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="4">
+      <c r="B115" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="4">
+      <c r="C115" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D115" t="s" s="4">
+      <c r="D115" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="4">
+      <c r="E115" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="4">
+      <c r="F115" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="4">
+      <c r="G115" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="4">
+      <c r="H115" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3505,28 +3553,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="4">
+      <c r="C117" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="4">
+      <c r="D117" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="4">
+      <c r="E117" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="4">
+      <c r="F117" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="4">
+      <c r="G117" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="4">
+      <c r="H117" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="4">
+      <c r="I117" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3614,10 +3662,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="4" t="s">
+      <c r="J120" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="4" t="s">
+      <c r="K120" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3661,28 +3709,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="4">
+      <c r="A122" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="4">
+      <c r="B122" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="4">
+      <c r="C122" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="4">
+      <c r="D122" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="4">
+      <c r="E122" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="4">
+      <c r="F122" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="4">
+      <c r="G122" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="4">
+      <c r="H122" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3707,28 +3755,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="4">
+      <c r="C124" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="4">
+      <c r="D124" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="4">
+      <c r="E124" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="4">
+      <c r="F124" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="4">
+      <c r="G124" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="4">
+      <c r="H124" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="4">
+      <c r="I124" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3845,10 +3893,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="4" t="s">
+      <c r="J128" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="4" t="s">
+      <c r="K128" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3892,28 +3940,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="4">
+      <c r="A130" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="4">
+      <c r="B130" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="4">
+      <c r="C130" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="4">
+      <c r="D130" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="4">
+      <c r="E130" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="4">
+      <c r="F130" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="4">
+      <c r="G130" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="4">
+      <c r="H130" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3938,28 +3986,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="4">
+      <c r="C132" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="4">
+      <c r="D132" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="4">
+      <c r="G132" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="4">
+      <c r="H132" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="4">
+      <c r="I132" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4076,10 +4124,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="4" t="s">
+      <c r="J136" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="4" t="s">
+      <c r="K136" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4123,28 +4171,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="4">
+      <c r="A138" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="4">
+      <c r="C138" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D138" t="s" s="4">
+      <c r="D138" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="4">
+      <c r="E138" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="4">
+      <c r="F138" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="4">
+      <c r="G138" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="4">
+      <c r="H138" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4169,28 +4217,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="4">
+      <c r="C140" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="4">
+      <c r="D140" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="4">
+      <c r="I140" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4307,10 +4355,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="4" t="s">
+      <c r="J144" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K144" s="4" t="s">
+      <c r="K144" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4354,28 +4402,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="4">
+      <c r="A146" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="4">
+      <c r="C146" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D146" t="s" s="4">
+      <c r="D146" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4400,28 +4448,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="4">
+      <c r="D148" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="4">
+      <c r="I148" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4567,10 +4615,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="4" t="s">
+      <c r="J153" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K153" s="4" t="s">
+      <c r="K153" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4614,28 +4662,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="4">
+      <c r="A155" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="4">
+      <c r="B155" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="4">
+      <c r="C155" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D155" t="s" s="4">
+      <c r="D155" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="4">
+      <c r="E155" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="4">
+      <c r="F155" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="4">
+      <c r="G155" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="4">
+      <c r="H155" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4660,28 +4708,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="4">
+      <c r="B157" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="4">
+      <c r="C157" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="4">
+      <c r="D157" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="4">
+      <c r="E157" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="4">
+      <c r="F157" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="4">
+      <c r="G157" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="4">
+      <c r="H157" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="4">
+      <c r="I157" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4769,10 +4817,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="4" t="s">
+      <c r="J160" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K160" s="4" t="s">
+      <c r="K160" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4816,28 +4864,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="4">
+      <c r="A162" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="4">
+      <c r="B162" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="4">
+      <c r="C162" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D162" t="s" s="4">
+      <c r="D162" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="4">
+      <c r="E162" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="4">
+      <c r="F162" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="4">
+      <c r="G162" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="4">
+      <c r="H162" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4862,28 +4910,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="4">
+      <c r="C164" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="4">
+      <c r="D164" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="4">
+      <c r="I164" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5000,10 +5048,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="4" t="s">
+      <c r="J168" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K168" s="4" t="s">
+      <c r="K168" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5047,28 +5095,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="4">
+      <c r="A170" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="4">
+      <c r="C170" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D170" t="s" s="4">
+      <c r="D170" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5093,28 +5141,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="4">
+      <c r="I172" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5202,10 +5250,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="4" t="s">
+      <c r="J175" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="4" t="s">
+      <c r="K175" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5249,28 +5297,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="4">
+      <c r="A177" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="4">
+      <c r="B177" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="4">
+      <c r="C177" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="4">
+      <c r="D177" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="4">
+      <c r="E177" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="4">
+      <c r="F177" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="4">
+      <c r="G177" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="4">
+      <c r="H177" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5295,28 +5343,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="4">
+      <c r="B179" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="4">
+      <c r="C179" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="4">
+      <c r="D179" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="4">
+      <c r="E179" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="4">
+      <c r="F179" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="4">
+      <c r="G179" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="4">
+      <c r="H179" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="4">
+      <c r="I179" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5375,10 +5423,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="4" t="s">
+      <c r="J181" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="4" t="s">
+      <c r="K181" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4560" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -682,10 +700,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -729,28 +747,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="12">
+      <c r="A19" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="12">
+      <c r="B19" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="12">
+      <c r="C19" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="12">
+      <c r="D19" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="12">
+      <c r="E19" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="12">
+      <c r="F19" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="12">
+      <c r="G19" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="12">
+      <c r="H19" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -775,28 +793,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="12">
+      <c r="B21" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="12">
+      <c r="C21" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="12">
+      <c r="D21" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E21" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="F21" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="12">
+      <c r="G21" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="12">
+      <c r="H21" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="12">
+      <c r="I21" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1145,10 +1163,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1192,28 +1210,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="12">
+      <c r="A35" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="12">
+      <c r="C35" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D35" t="s" s="12">
+      <c r="D35" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F35" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1238,28 +1256,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="12">
+      <c r="B37" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="12">
+      <c r="C37" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="12">
+      <c r="D37" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="12">
+      <c r="E37" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="12">
+      <c r="F37" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="12">
+      <c r="G37" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="12">
+      <c r="H37" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="12">
+      <c r="I37" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1550,10 +1568,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="12" t="s">
+      <c r="J47" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="K47" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1597,28 +1615,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="12">
+      <c r="A49" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="12">
+      <c r="B49" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="12">
+      <c r="C49" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D49" t="s" s="12">
+      <c r="D49" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="12">
+      <c r="E49" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="12">
+      <c r="F49" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="12">
+      <c r="G49" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="12">
+      <c r="H49" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1643,28 +1661,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="12">
+      <c r="B51" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="12">
+      <c r="C51" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="12">
+      <c r="D51" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="12">
+      <c r="E51" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="12">
+      <c r="F51" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="12">
+      <c r="G51" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="12">
+      <c r="H51" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="12">
+      <c r="I51" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2042,10 +2060,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="12" t="s">
+      <c r="J64" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="12" t="s">
+      <c r="K64" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2089,28 +2107,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="12">
+      <c r="A66" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="12">
+      <c r="B66" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="12">
+      <c r="C66" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="12">
+      <c r="D66" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="12">
+      <c r="E66" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="12">
+      <c r="F66" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="12">
+      <c r="G66" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="12">
+      <c r="H66" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2135,28 +2153,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="12">
+      <c r="B68" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="12">
+      <c r="C68" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="12">
+      <c r="D68" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="12">
+      <c r="F68" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G68" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="12">
+      <c r="I68" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2476,10 +2494,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="12" t="s">
+      <c r="J79" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="12" t="s">
+      <c r="K79" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2523,28 +2541,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="12">
+      <c r="A81" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="12">
+      <c r="B81" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="12">
+      <c r="C81" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D81" t="s" s="12">
+      <c r="D81" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="12">
+      <c r="E81" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="12">
+      <c r="F81" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="12">
+      <c r="G81" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="12">
+      <c r="H81" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2569,28 +2587,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="12">
+      <c r="C83" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="12">
+      <c r="D83" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="12">
+      <c r="E83" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="12">
+      <c r="F83" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="12">
+      <c r="G83" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="12">
+      <c r="H83" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="12">
+      <c r="I83" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2968,10 +2986,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="12" t="s">
+      <c r="J96" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="12" t="s">
+      <c r="K96" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -3015,28 +3033,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="12">
+      <c r="A98" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="12">
+      <c r="B98" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="12">
+      <c r="C98" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="12">
+      <c r="D98" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="12">
+      <c r="E98" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="12">
+      <c r="F98" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="12">
+      <c r="G98" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="12">
+      <c r="H98" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3061,28 +3079,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="12">
+      <c r="B100" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="12">
+      <c r="C100" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="12">
+      <c r="D100" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="12">
+      <c r="E100" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="12">
+      <c r="F100" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="12">
+      <c r="G100" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="12">
+      <c r="H100" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="12">
+      <c r="I100" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3460,10 +3478,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="12" t="s">
+      <c r="J113" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="12" t="s">
+      <c r="K113" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3507,28 +3525,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="12">
+      <c r="A115" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="12">
+      <c r="B115" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="12">
+      <c r="C115" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D115" t="s" s="12">
+      <c r="D115" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="12">
+      <c r="E115" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="12">
+      <c r="F115" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="12">
+      <c r="G115" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="12">
+      <c r="H115" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3553,28 +3571,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="12">
+      <c r="B117" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="12">
+      <c r="C117" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="12">
+      <c r="D117" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="12">
+      <c r="E117" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="12">
+      <c r="F117" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="12">
+      <c r="G117" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="12">
+      <c r="H117" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="12">
+      <c r="I117" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3662,10 +3680,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="12" t="s">
+      <c r="J120" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="12" t="s">
+      <c r="K120" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3709,28 +3727,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="12">
+      <c r="A122" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="12">
+      <c r="B122" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="12">
+      <c r="C122" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="12">
+      <c r="D122" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="12">
+      <c r="E122" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="12">
+      <c r="F122" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="12">
+      <c r="G122" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="12">
+      <c r="H122" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3755,28 +3773,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="12">
+      <c r="B124" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="12">
+      <c r="C124" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="12">
+      <c r="D124" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="12">
+      <c r="E124" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="12">
+      <c r="F124" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="12">
+      <c r="G124" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="12">
+      <c r="H124" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="12">
+      <c r="I124" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3893,10 +3911,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="12" t="s">
+      <c r="J128" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="12" t="s">
+      <c r="K128" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3940,28 +3958,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="12">
+      <c r="A130" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="12">
+      <c r="B130" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="12">
+      <c r="C130" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="12">
+      <c r="D130" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="12">
+      <c r="E130" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="12">
+      <c r="F130" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="12">
+      <c r="G130" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="12">
+      <c r="H130" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3986,28 +4004,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="12">
+      <c r="B132" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="12">
+      <c r="C132" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="12">
+      <c r="D132" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="12">
+      <c r="F132" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="12">
+      <c r="H132" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="12">
+      <c r="I132" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4124,10 +4142,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="12" t="s">
+      <c r="J136" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="12" t="s">
+      <c r="K136" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4171,28 +4189,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="12">
+      <c r="A138" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="12">
+      <c r="B138" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="12">
+      <c r="C138" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D138" t="s" s="12">
+      <c r="D138" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E138" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="12">
+      <c r="F138" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="12">
+      <c r="G138" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="12">
+      <c r="H138" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4217,28 +4235,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="12">
+      <c r="C140" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="12">
+      <c r="D140" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="12">
+      <c r="I140" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4355,10 +4373,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="12" t="s">
+      <c r="J144" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K144" s="12" t="s">
+      <c r="K144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4402,28 +4420,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="12">
+      <c r="A146" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="12">
+      <c r="C146" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D146" t="s" s="12">
+      <c r="D146" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4448,28 +4466,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="12">
+      <c r="C148" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="12">
+      <c r="D148" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="12">
+      <c r="I148" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4615,10 +4633,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="12" t="s">
+      <c r="J153" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K153" s="12" t="s">
+      <c r="K153" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4662,28 +4680,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="12">
+      <c r="A155" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="12">
+      <c r="B155" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="12">
+      <c r="C155" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D155" t="s" s="12">
+      <c r="D155" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="12">
+      <c r="E155" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="12">
+      <c r="F155" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="12">
+      <c r="G155" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="12">
+      <c r="H155" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4708,28 +4726,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="12">
+      <c r="B157" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="12">
+      <c r="C157" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="12">
+      <c r="D157" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="12">
+      <c r="E157" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="12">
+      <c r="F157" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="12">
+      <c r="G157" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="12">
+      <c r="H157" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="12">
+      <c r="I157" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4817,10 +4835,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="12" t="s">
+      <c r="J160" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K160" s="12" t="s">
+      <c r="K160" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4864,28 +4882,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="12">
+      <c r="A162" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="12">
+      <c r="B162" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="12">
+      <c r="C162" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D162" t="s" s="12">
+      <c r="D162" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="12">
+      <c r="E162" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="12">
+      <c r="F162" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="12">
+      <c r="G162" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="12">
+      <c r="H162" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4910,28 +4928,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="12">
+      <c r="C164" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="12">
+      <c r="D164" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="12">
+      <c r="I164" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5048,10 +5066,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="12" t="s">
+      <c r="J168" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K168" s="12" t="s">
+      <c r="K168" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5095,28 +5113,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="12">
+      <c r="A170" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="12">
+      <c r="C170" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D170" t="s" s="12">
+      <c r="D170" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5141,28 +5159,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="12">
+      <c r="I172" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5250,10 +5268,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="12" t="s">
+      <c r="J175" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="12" t="s">
+      <c r="K175" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5297,28 +5315,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="12">
+      <c r="A177" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="12">
+      <c r="B177" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="12">
+      <c r="C177" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="12">
+      <c r="D177" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="12">
+      <c r="E177" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="12">
+      <c r="F177" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="12">
+      <c r="G177" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="12">
+      <c r="H177" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5343,28 +5361,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="12">
+      <c r="B179" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="12">
+      <c r="C179" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="12">
+      <c r="D179" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="12">
+      <c r="E179" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="12">
+      <c r="F179" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="12">
+      <c r="G179" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="12">
+      <c r="H179" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="12">
+      <c r="I179" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5423,10 +5441,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="12" t="s">
+      <c r="J181" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="12" t="s">
+      <c r="K181" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
